--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1529.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1529.xlsx
@@ -354,7 +354,7 @@
         <v>2.23748700003007</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.513235497307279</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1529.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1529.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.442523268455161</v>
+        <v>1.83935558795929</v>
       </c>
       <c r="B1">
-        <v>2.23748700003007</v>
+        <v>4.856363296508789</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.686752319335938</v>
       </c>
       <c r="D1">
-        <v>1.513235497307279</v>
+        <v>1.251519918441772</v>
       </c>
       <c r="E1">
-        <v>0.7864616344720489</v>
+        <v>0.8272326588630676</v>
       </c>
     </row>
   </sheetData>
